--- a/toolbox_data/parsers/planktondb_bvol_abundance_parser.xlsx
+++ b/toolbox_data/parsers/planktondb_bvol_abundance_parser.xlsx
@@ -1160,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/toolbox_data/parsers/planktondb_bvol_abundance_parser.xlsx
+++ b/toolbox_data/parsers/planktondb_bvol_abundance_parser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="520" windowWidth="31860" windowHeight="21100" tabRatio="500"/>
+    <workbookView xWindow="3300" yWindow="1520" windowWidth="31860" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pp_import_matrix.txt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="86">
   <si>
     <t>Node level</t>
   </si>
@@ -27,18 +27,6 @@
     <t>Key</t>
   </si>
   <si>
-    <t>Short name</t>
-  </si>
-  <si>
-    <t>English name</t>
-  </si>
-  <si>
-    <t>Swedish name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>INFO</t>
   </si>
   <si>
@@ -165,12 +153,6 @@
     <t>$Text('MYEAR')</t>
   </si>
   <si>
-    <t>$Text('SDATE')</t>
-  </si>
-  <si>
-    <t>Import 1</t>
-  </si>
-  <si>
     <t>Reporting laboratory</t>
   </si>
   <si>
@@ -246,10 +228,55 @@
     <t>Float</t>
   </si>
   <si>
-    <t>$CopyVariable(p=u'Bio volume', v=$Float(u'BIOVOLUME') / 1000000000.0 , u=u'µm3/l')</t>
-  </si>
-  <si>
     <t>$Text('SUMABUND')</t>
+  </si>
+  <si>
+    <t>Import (no biovolumes)</t>
+  </si>
+  <si>
+    <t>Import 1 (with biovolumes))</t>
+  </si>
+  <si>
+    <t>$Text('%SDATE') + $Text('SDATE')</t>
+  </si>
+  <si>
+    <t>Plankton group</t>
+  </si>
+  <si>
+    <t>PLANKTON_GROUP</t>
+  </si>
+  <si>
+    <t>Dyntaxa class</t>
+  </si>
+  <si>
+    <t>$Species($Text('GENUS')+u' '+$Text('SPECIESNAME'), key=u'Class')</t>
+  </si>
+  <si>
+    <t>$PlanktonGroup($Text('GENUS')+u' '+$Text('SPECIESNAME'))</t>
+  </si>
+  <si>
+    <t>$Text('MYEAR')+u':'+$Text('%SDATE')+$Text('SDATE')+u':'+$Text('STATN')+u':'+$Text('STNNO')</t>
+  </si>
+  <si>
+    <t>if $Text(u'BIOVOLUME'): $CopyVariable(p=u'Bio volume', v=$Float(u'BIOVOLUME') / 1000000000.0 , u=u'mm3/l')</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>Trophy</t>
+  </si>
+  <si>
+    <t>TROPHY</t>
+  </si>
+  <si>
+    <t>NS is used if field is empty.</t>
+  </si>
+  <si>
+    <t>$Text('TROPHY') if $Text('TROPHY') else u'NS'</t>
   </si>
 </sst>
 </file>
@@ -304,8 +331,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="255">
+  <cellStyleXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -574,7 +607,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="255">
+  <cellStyles count="261">
     <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
@@ -702,6 +735,9 @@
     <cellStyle name="Följd hyperlänk" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="260" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
@@ -829,10 +865,18 @@
     <cellStyle name="Hyperlänk" xfId="249" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="259" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1158,27 +1202,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="55.83203125" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="72.5" customWidth="1"/>
-    <col min="9" max="10" width="19.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="48.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.5" customWidth="1"/>
+    <col min="5" max="5" width="46.5" customWidth="1"/>
+    <col min="6" max="7" width="19.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1186,440 +1227,563 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="C19" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5">
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="J18"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="J22"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" t="s">
-        <v>62</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" t="s">
-        <v>76</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="I28"/>
-      <c r="J28"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" t="s">
-        <v>75</v>
+      <c r="D32" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
